--- a/src/excels/immune/output_excel.xlsx
+++ b/src/excels/immune/output_excel.xlsx
@@ -984,15 +984,15 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>mt-Co1</t>
+          <t>Atp8b4</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.3, 0.4, 0.5</t>
+          <t>0.3, 0.4</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1129,15 +1129,15 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Atp8b4</t>
+          <t>Fau</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.3, 0.4</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1274,11 +1274,11 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>mt-Co3</t>
+          <t>Mctp2</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1659,15 +1659,15 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Dach1</t>
+          <t>Tpt1</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr"/>
@@ -1774,11 +1774,11 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Atp1b3</t>
+          <t>Dach1</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1859,11 +1859,11 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>H2-K1</t>
+          <t>Atp1b3</t>
         </is>
       </c>
       <c r="W11" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1912,9 +1912,19 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>H2-K1</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
@@ -1957,9 +1967,19 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Agfg1</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>

--- a/src/excels/immune/output_excel.xlsx
+++ b/src/excels/immune/output_excel.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Imm.0.8.3</t>
+          <t>Imm.0.8.3*</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Imm.1.2.14</t>
+          <t>Imm.1.2.14*</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Ccl3</t>
+          <t>Ccl3*</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -787,7 +787,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Atf3*</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Ccdc88c</t>
+          <t>Ccdc88c*</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Cd83*</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -984,7 +984,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Atp8b4</t>
+          <t>Atp8b4*</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Fam214b</t>
+          <t>Fam214b*</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Fau</t>
+          <t>Fau*</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Relb</t>
+          <t>Relb*</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Mctp2</t>
+          <t>Mctp2*</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1357,7 +1357,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Gfap</t>
+          <t>Gfap*</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Rps14</t>
+          <t>Rps14*</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1482,7 +1482,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Uvssa</t>
+          <t>Uvssa*</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Lrrc8c</t>
+          <t>Lrrc8c*</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -1607,7 +1607,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Cracr2a</t>
+          <t>Cracr2a*</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Tpt1</t>
+          <t>Tpt1*</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -1722,7 +1722,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Coro1c</t>
+          <t>Coro1c*</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Dach1</t>
+          <t>Dach1*</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -1827,7 +1827,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Chtop</t>
+          <t>Chtop*</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Atp1b3</t>
+          <t>Atp1b3*</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -1914,7 +1914,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>H2-K1</t>
+          <t>H2-K1*</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -1969,7 +1969,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Agfg1</t>
+          <t>Agfg1*</t>
         </is>
       </c>
       <c r="W13" t="n">
